--- a/reports_pdf/brasil/risk-pt/Cases/IRRD/recife.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/IRRD/recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,28 +423,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16909</v>
+        <v>17037</v>
       </c>
       <c r="D2" t="n">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="E2" t="n">
-        <v>1.128424657534246</v>
+        <v>1.027833001988071</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7902637584558555</v>
+        <v>0.8043793185805319</v>
       </c>
       <c r="G2" t="n">
-        <v>3612</v>
+        <v>3488</v>
       </c>
       <c r="H2" t="n">
-        <v>232.2829581993569</v>
+        <v>211.9428070390776</v>
       </c>
       <c r="I2" t="n">
-        <v>2854.43269554255</v>
+        <v>2805.675063208895</v>
       </c>
       <c r="J2" t="n">
-        <v>183.5648035718682</v>
+        <v>170.4824107041384</v>
       </c>
     </row>
     <row r="3">
@@ -457,28 +457,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3683</v>
+        <v>3715</v>
       </c>
       <c r="D3" t="n">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>1.391061452513966</v>
+        <v>1.123456790123457</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9356957235438432</v>
+        <v>0.9227747302306931</v>
       </c>
       <c r="G3" t="n">
-        <v>1089</v>
+        <v>1064</v>
       </c>
       <c r="H3" t="n">
-        <v>324.7150171004649</v>
+        <v>151.5026384811006</v>
       </c>
       <c r="I3" t="n">
-        <v>1018.972642939245</v>
+        <v>981.8323129654575</v>
       </c>
       <c r="J3" t="n">
-        <v>303.8344528713709</v>
+        <v>139.8028063536359</v>
       </c>
     </row>
     <row r="4">
@@ -487,32 +487,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAO LOURENCO DA MATA</t>
+          <t>OLINDA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>491</v>
+        <v>2970</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.689873417721519</v>
       </c>
       <c r="F4" t="n">
-        <v>0.769833702614023</v>
+        <v>0.7982756151446512</v>
       </c>
       <c r="G4" t="n">
-        <v>86</v>
+        <v>706</v>
       </c>
       <c r="H4" t="n">
-        <v>93.28560581407962</v>
+        <v>179.8808607783287</v>
       </c>
       <c r="I4" t="n">
-        <v>66.20569842480597</v>
+        <v>563.5825842921238</v>
       </c>
       <c r="J4" t="n">
-        <v>71.81440332444514</v>
+        <v>143.5945047905697</v>
       </c>
     </row>
     <row r="5">
@@ -521,32 +521,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OLINDA</t>
+          <t>CARUARU</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2936</v>
+        <v>567</v>
       </c>
       <c r="D5" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.975609756097561</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8757222697558626</v>
+        <v>1.290932868852163</v>
       </c>
       <c r="G5" t="n">
-        <v>710</v>
+        <v>295</v>
       </c>
       <c r="H5" t="n">
-        <v>191.7198621777216</v>
+        <v>81.6907492841675</v>
       </c>
       <c r="I5" t="n">
-        <v>621.7628115266625</v>
+        <v>380.8251963113882</v>
       </c>
       <c r="J5" t="n">
-        <v>167.8933528635555</v>
+        <v>105.4572733320932</v>
       </c>
     </row>
     <row r="6">
@@ -555,32 +555,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CAMARAGIBE</t>
+          <t>PETROLINA</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1008</v>
+        <v>208</v>
       </c>
       <c r="D6" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8085106382978723</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8972349059984219</v>
+        <v>1.245302736479207</v>
       </c>
       <c r="G6" t="n">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="H6" t="n">
-        <v>150.2083535226282</v>
+        <v>26.06366982199373</v>
       </c>
       <c r="I6" t="n">
-        <v>194.6999746016575</v>
+        <v>113.3225490196078</v>
       </c>
       <c r="J6" t="n">
-        <v>134.772177953053</v>
+        <v>32.45715935201932</v>
       </c>
     </row>
     <row r="7">
@@ -589,32 +589,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PETROLINA</t>
+          <t>PAULISTA</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>204</v>
+        <v>2139</v>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E7" t="n">
-        <v>1.882352941176471</v>
+        <v>0.7227722772277227</v>
       </c>
       <c r="F7" t="n">
-        <v>1.042921784098255</v>
+        <v>0.789881054791347</v>
       </c>
       <c r="G7" t="n">
-        <v>88</v>
+        <v>524</v>
       </c>
       <c r="H7" t="n">
-        <v>40.5356229818557</v>
+        <v>157.9388378836196</v>
       </c>
       <c r="I7" t="n">
-        <v>91.77711700064641</v>
+        <v>413.8976727106658</v>
       </c>
       <c r="J7" t="n">
-        <v>42.27548423977117</v>
+        <v>124.752895860033</v>
       </c>
     </row>
     <row r="8">
@@ -623,32 +623,474 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CARUARU</t>
+          <t>CABO DE SANTO AGOSTINHO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>554</v>
+        <v>746</v>
       </c>
       <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.37037037037037</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7640332034689779</v>
+      </c>
+      <c r="G8" t="n">
+        <v>237</v>
+      </c>
+      <c r="H8" t="n">
+        <v>114.4662107337429</v>
+      </c>
+      <c r="I8" t="n">
+        <v>181.0758692221478</v>
+      </c>
+      <c r="J8" t="n">
+        <v>87.45598567585668</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CAMARAGIBE</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1031</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8173177217334116</v>
+      </c>
+      <c r="G9" t="n">
+        <v>237</v>
+      </c>
+      <c r="H9" t="n">
+        <v>150.1634690929366</v>
+      </c>
+      <c r="I9" t="n">
+        <v>193.7043000508185</v>
+      </c>
+      <c r="J9" t="n">
+        <v>122.7312644466245</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GARANHUNS</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>246</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.32374491015044</v>
+      </c>
+      <c r="G10" t="n">
+        <v>113</v>
+      </c>
+      <c r="H10" t="n">
+        <v>80.83669556757376</v>
+      </c>
+      <c r="I10" t="n">
+        <v>149.5831748469997</v>
+      </c>
+      <c r="J10" t="n">
+        <v>107.0071643109564</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>VITORIA DE SANTO ANTAO</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>620</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.411764705882353</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8103448209662789</v>
+      </c>
+      <c r="G11" t="n">
+        <v>157</v>
+      </c>
+      <c r="H11" t="n">
+        <v>113.147444813595</v>
+      </c>
+      <c r="I11" t="n">
+        <v>127.2241368917058</v>
+      </c>
+      <c r="J11" t="n">
+        <v>91.68844591026455</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>IGARASSU</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>352</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9473684210526315</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.420352934450679</v>
+      </c>
+      <c r="G12" t="n">
+        <v>104</v>
+      </c>
+      <c r="H12" t="n">
+        <v>88.87445628487681</v>
+      </c>
+      <c r="I12" t="n">
+        <v>147.7167051828706</v>
+      </c>
+      <c r="J12" t="n">
+        <v>126.2330947819333</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SAO LOURENCO DA MATA</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>495</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.6326583779386983</v>
+      </c>
+      <c r="G13" t="n">
+        <v>85</v>
+      </c>
+      <c r="H13" t="n">
+        <v>75.06844475845624</v>
+      </c>
+      <c r="I13" t="n">
+        <v>53.77596212478935</v>
+      </c>
+      <c r="J13" t="n">
+        <v>47.4926804952657</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SANTA CRUZ DO CAPIBARIBE</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>41</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3.122448979591837</v>
+      </c>
+      <c r="G14" t="n">
+        <v>20</v>
+      </c>
+      <c r="H14" t="n">
+        <v>18.52932729277263</v>
+      </c>
+      <c r="I14" t="n">
+        <v>62.44897959183674</v>
+      </c>
+      <c r="J14" t="n">
+        <v>57.85687909784109</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ABREU E LIMA</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>384</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.277777777777778</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.02972359198863</v>
+      </c>
+      <c r="G15" t="n">
+        <v>104</v>
+      </c>
+      <c r="H15" t="n">
+        <v>104.010401040104</v>
+      </c>
+      <c r="I15" t="n">
+        <v>107.0912535668175</v>
+      </c>
+      <c r="J15" t="n">
+        <v>107.1019637631938</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>IPOJUCA</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>309</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.148148148148148</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.391027258992813</v>
+      </c>
+      <c r="G16" t="n">
+        <v>127</v>
+      </c>
+      <c r="H16" t="n">
+        <v>132.0111429878175</v>
+      </c>
+      <c r="I16" t="n">
+        <v>176.6604618920872</v>
+      </c>
+      <c r="J16" t="n">
+        <v>183.6310983868521</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SERRA TALHADA</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>189</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.058823529411764</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.4850885808869</v>
+      </c>
+      <c r="G17" t="n">
+        <v>108</v>
+      </c>
+      <c r="H17" t="n">
+        <v>125.0723798494499</v>
+      </c>
+      <c r="I17" t="n">
+        <v>160.3895667357852</v>
+      </c>
+      <c r="J17" t="n">
+        <v>185.7435630987669</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ARARIPINA</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>84</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.260892049127343</v>
+      </c>
+      <c r="G18" t="n">
+        <v>51</v>
+      </c>
+      <c r="H18" t="n">
+        <v>60.41365585538629</v>
+      </c>
+      <c r="I18" t="n">
+        <v>64.30549450549451</v>
+      </c>
+      <c r="J18" t="n">
+        <v>76.17509832677214</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GRAVATA</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>127</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.557251082251082</v>
+      </c>
+      <c r="G19" t="n">
+        <v>43</v>
+      </c>
+      <c r="H19" t="n">
+        <v>51.14541951138283</v>
+      </c>
+      <c r="I19" t="n">
+        <v>66.96179653679653</v>
+      </c>
+      <c r="J19" t="n">
+        <v>79.64625988628651</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CARPINA</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>164</v>
+      </c>
+      <c r="D20" t="n">
+        <v>15</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.181603530393504</v>
+      </c>
+      <c r="G20" t="n">
+        <v>82</v>
+      </c>
+      <c r="H20" t="n">
+        <v>98.03804354323836</v>
+      </c>
+      <c r="I20" t="n">
+        <v>96.89148949226733</v>
+      </c>
+      <c r="J20" t="n">
+        <v>115.8420983635625</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="E8" t="n">
-        <v>1.409836065573771</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.43228625231081</v>
-      </c>
-      <c r="G8" t="n">
-        <v>289</v>
-      </c>
-      <c r="H8" t="n">
-        <v>103.9635659862869</v>
-      </c>
-      <c r="I8" t="n">
-        <v>413.930726917824</v>
-      </c>
-      <c r="J8" t="n">
-        <v>148.9055863033664</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GOIANA</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>492</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.727272727272727</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.432807668521954</v>
+      </c>
+      <c r="G21" t="n">
+        <v>246</v>
+      </c>
+      <c r="H21" t="n">
+        <v>308.4330098548108</v>
+      </c>
+      <c r="I21" t="n">
+        <v>352.4706864564008</v>
+      </c>
+      <c r="J21" t="n">
+        <v>441.9251817452804</v>
       </c>
     </row>
   </sheetData>

--- a/reports_pdf/brasil/risk-pt/Cases/IRRD/recife.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/IRRD/recife.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1093,6 +1093,40 @@
         <v>441.9251817452804</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PALMARES</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>372</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.6851851851851852</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.060681010026975</v>
+      </c>
+      <c r="G22" t="n">
+        <v>231</v>
+      </c>
+      <c r="H22" t="n">
+        <v>365.2173913043478</v>
+      </c>
+      <c r="I22" t="n">
+        <v>245.0173133162312</v>
+      </c>
+      <c r="J22" t="n">
+        <v>387.3791514881125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reports_pdf/brasil/risk-pt/Cases/IRRD/recife.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/IRRD/recife.xlsx
@@ -423,28 +423,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17037</v>
+        <v>17133</v>
       </c>
       <c r="D2" t="n">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>1.027833001988071</v>
+        <v>0.6394160583941606</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8043793185805319</v>
+        <v>0.7934835734211544</v>
       </c>
       <c r="G2" t="n">
-        <v>3488</v>
+        <v>3421</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9428070390776</v>
+        <v>207.871657935976</v>
       </c>
       <c r="I2" t="n">
-        <v>2805.675063208895</v>
+        <v>2714.507304673769</v>
       </c>
       <c r="J2" t="n">
-        <v>170.4824107041384</v>
+        <v>164.9427459520181</v>
       </c>
     </row>
     <row r="3">
@@ -457,28 +457,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3715</v>
+        <v>3723</v>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>1.123456790123457</v>
+        <v>0.6308411214953271</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9227747302306931</v>
+        <v>0.891126182961318</v>
       </c>
       <c r="G3" t="n">
-        <v>1064</v>
+        <v>1026</v>
       </c>
       <c r="H3" t="n">
-        <v>151.5026384811006</v>
+        <v>146.0918299639184</v>
       </c>
       <c r="I3" t="n">
-        <v>981.8323129654575</v>
+        <v>914.2954637183122</v>
       </c>
       <c r="J3" t="n">
-        <v>139.8028063536359</v>
+        <v>130.1862547975805</v>
       </c>
     </row>
     <row r="4">
@@ -491,28 +491,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2970</v>
+        <v>2983</v>
       </c>
       <c r="D4" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>0.689873417721519</v>
+        <v>0.5290322580645161</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7982756151446512</v>
+        <v>0.7559226011960538</v>
       </c>
       <c r="G4" t="n">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="H4" t="n">
-        <v>179.8808607783287</v>
+        <v>172.74677564831</v>
       </c>
       <c r="I4" t="n">
-        <v>563.5825842921238</v>
+        <v>512.5155236109244</v>
       </c>
       <c r="J4" t="n">
-        <v>143.5945047905697</v>
+        <v>130.5831919963016</v>
       </c>
     </row>
     <row r="5">
@@ -525,28 +525,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="F5" t="n">
-        <v>1.290932868852163</v>
+        <v>1.239055579474874</v>
       </c>
       <c r="G5" t="n">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="H5" t="n">
-        <v>81.6907492841675</v>
+        <v>84.18300943182007</v>
       </c>
       <c r="I5" t="n">
-        <v>380.8251963113882</v>
+        <v>376.6728961603617</v>
       </c>
       <c r="J5" t="n">
-        <v>105.4572733320932</v>
+        <v>104.3074275334826</v>
       </c>
     </row>
     <row r="6">
@@ -562,25 +562,25 @@
         <v>208</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.416666666666667</v>
+        <v>1.625</v>
       </c>
       <c r="F6" t="n">
-        <v>1.245302736479207</v>
+        <v>1.315540831717302</v>
       </c>
       <c r="G6" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H6" t="n">
-        <v>26.06366982199373</v>
+        <v>24.34518609746667</v>
       </c>
       <c r="I6" t="n">
-        <v>113.3225490196078</v>
+        <v>111.8209706959707</v>
       </c>
       <c r="J6" t="n">
-        <v>32.45715935201932</v>
+        <v>32.0270863669738</v>
       </c>
     </row>
     <row r="7">
@@ -593,28 +593,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2139</v>
+        <v>2154</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7227722772277227</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="F7" t="n">
-        <v>0.789881054791347</v>
+        <v>0.7501117773171515</v>
       </c>
       <c r="G7" t="n">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="H7" t="n">
-        <v>157.9388378836196</v>
+        <v>153.7190979401641</v>
       </c>
       <c r="I7" t="n">
-        <v>413.8976727106658</v>
+        <v>382.5570064317473</v>
       </c>
       <c r="J7" t="n">
-        <v>124.752895860033</v>
+        <v>115.3065057634858</v>
       </c>
     </row>
     <row r="8">
@@ -627,28 +627,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>1.37037037037037</v>
+        <v>0.6938775510204082</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7640332034689779</v>
+        <v>0.75839666313856</v>
       </c>
       <c r="G8" t="n">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="H8" t="n">
-        <v>114.4662107337429</v>
+        <v>110.1193926046134</v>
       </c>
       <c r="I8" t="n">
-        <v>181.0758692221478</v>
+        <v>172.9144391955917</v>
       </c>
       <c r="J8" t="n">
-        <v>87.45598567585668</v>
+        <v>83.51417989818384</v>
       </c>
     </row>
     <row r="9">
@@ -661,28 +661,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="D9" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>1.173913043478261</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8173177217334116</v>
+        <v>0.7727098785961566</v>
       </c>
       <c r="G9" t="n">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="H9" t="n">
-        <v>150.1634690929366</v>
+        <v>143.8274577388043</v>
       </c>
       <c r="I9" t="n">
-        <v>193.7043000508185</v>
+        <v>175.4051424413275</v>
       </c>
       <c r="J9" t="n">
-        <v>122.7312644466245</v>
+        <v>111.1368974081453</v>
       </c>
     </row>
     <row r="10">
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F10" t="n">
-        <v>1.32374491015044</v>
+        <v>1.293461829176115</v>
       </c>
       <c r="G10" t="n">
         <v>113</v>
@@ -713,10 +713,10 @@
         <v>80.83669556757376</v>
       </c>
       <c r="I10" t="n">
-        <v>149.5831748469997</v>
+        <v>146.161186696901</v>
       </c>
       <c r="J10" t="n">
-        <v>107.0071643109564</v>
+        <v>104.5591801133867</v>
       </c>
     </row>
     <row r="11">
@@ -729,28 +729,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>1.411764705882353</v>
+        <v>0.9</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8103448209662789</v>
+        <v>0.8739811846026425</v>
       </c>
       <c r="G11" t="n">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="H11" t="n">
-        <v>113.147444813595</v>
+        <v>104.4992324711546</v>
       </c>
       <c r="I11" t="n">
-        <v>127.2241368917058</v>
+        <v>126.7272717673832</v>
       </c>
       <c r="J11" t="n">
-        <v>91.68844591026455</v>
+        <v>91.33036298520663</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="F12" t="n">
-        <v>1.420352934450679</v>
+        <v>1.273032762362705</v>
       </c>
       <c r="G12" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H12" t="n">
-        <v>88.87445628487681</v>
+        <v>87.16533212555227</v>
       </c>
       <c r="I12" t="n">
-        <v>147.7167051828706</v>
+        <v>129.8493417609959</v>
       </c>
       <c r="J12" t="n">
-        <v>126.2330947819333</v>
+        <v>110.9643235380544</v>
       </c>
     </row>
     <row r="13">
@@ -797,28 +797,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6326583779386983</v>
+        <v>0.5344440922244126</v>
       </c>
       <c r="G13" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H13" t="n">
-        <v>75.06844475845624</v>
+        <v>72.41897023756954</v>
       </c>
       <c r="I13" t="n">
-        <v>53.77596212478935</v>
+        <v>43.82441556240183</v>
       </c>
       <c r="J13" t="n">
-        <v>47.4926804952657</v>
+        <v>38.7038908084446</v>
       </c>
     </row>
     <row r="14">
@@ -831,28 +831,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.3</v>
       </c>
       <c r="F14" t="n">
-        <v>3.122448979591837</v>
+        <v>3.022448979591837</v>
       </c>
       <c r="G14" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H14" t="n">
-        <v>18.52932729277263</v>
+        <v>20.3822600220499</v>
       </c>
       <c r="I14" t="n">
-        <v>62.44897959183674</v>
+        <v>66.4938775510204</v>
       </c>
       <c r="J14" t="n">
-        <v>57.85687909784109</v>
+        <v>61.6043410054202</v>
       </c>
     </row>
     <row r="15">
@@ -865,28 +865,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
-        <v>1.277777777777778</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="F15" t="n">
-        <v>1.02972359198863</v>
+        <v>0.9594596168333501</v>
       </c>
       <c r="G15" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H15" t="n">
-        <v>104.010401040104</v>
+        <v>103.010301030103</v>
       </c>
       <c r="I15" t="n">
-        <v>107.0912535668175</v>
+        <v>98.82434053383507</v>
       </c>
       <c r="J15" t="n">
-        <v>107.1019637631938</v>
+        <v>98.83422395623069</v>
       </c>
     </row>
     <row r="16">
@@ -899,28 +899,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>1.148148148148148</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="F16" t="n">
-        <v>1.391027258992813</v>
+        <v>0.992409747472075</v>
       </c>
       <c r="G16" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H16" t="n">
-        <v>132.0111429878175</v>
+        <v>136.1689742630244</v>
       </c>
       <c r="I16" t="n">
-        <v>176.6604618920872</v>
+        <v>130.0056769188418</v>
       </c>
       <c r="J16" t="n">
-        <v>183.6310983868521</v>
+        <v>135.1354173618995</v>
       </c>
     </row>
     <row r="17">
@@ -933,28 +933,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>2.058823529411764</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="F17" t="n">
-        <v>1.4850885808869</v>
+        <v>1.421596517394837</v>
       </c>
       <c r="G17" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H17" t="n">
-        <v>125.0723798494499</v>
+        <v>123.9143022582513</v>
       </c>
       <c r="I17" t="n">
-        <v>160.3895667357852</v>
+        <v>152.1108273612475</v>
       </c>
       <c r="J17" t="n">
-        <v>185.7435630987669</v>
+        <v>176.1561405457412</v>
       </c>
     </row>
     <row r="18">
@@ -970,13 +970,13 @@
         <v>84</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="F18" t="n">
-        <v>1.260892049127343</v>
+        <v>0.9071505525287037</v>
       </c>
       <c r="G18" t="n">
         <v>51</v>
@@ -985,10 +985,10 @@
         <v>60.41365585538629</v>
       </c>
       <c r="I18" t="n">
-        <v>64.30549450549451</v>
+        <v>46.26467817896389</v>
       </c>
       <c r="J18" t="n">
-        <v>76.17509832677214</v>
+        <v>54.80428128949263</v>
       </c>
     </row>
     <row r="19">
@@ -1001,28 +1001,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D19" t="n">
         <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="F19" t="n">
-        <v>1.557251082251082</v>
+        <v>1.308166833166833</v>
       </c>
       <c r="G19" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H19" t="n">
-        <v>51.14541951138283</v>
+        <v>53.5242762328425</v>
       </c>
       <c r="I19" t="n">
-        <v>66.96179653679653</v>
+        <v>58.8675074925075</v>
       </c>
       <c r="J19" t="n">
-        <v>79.64625988628651</v>
+        <v>70.01868293706437</v>
       </c>
     </row>
     <row r="20">
@@ -1035,28 +1035,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>3.375</v>
+        <v>1.642857142857143</v>
       </c>
       <c r="F20" t="n">
-        <v>1.181603530393504</v>
+        <v>1.340667155843684</v>
       </c>
       <c r="G20" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H20" t="n">
-        <v>98.03804354323836</v>
+        <v>96.84245764636961</v>
       </c>
       <c r="I20" t="n">
-        <v>96.89148949226733</v>
+        <v>108.5940396233384</v>
       </c>
       <c r="J20" t="n">
-        <v>115.8420983635625</v>
+        <v>129.8335022576708</v>
       </c>
     </row>
     <row r="21">
@@ -1069,28 +1069,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E21" t="n">
-        <v>1.727272727272727</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="F21" t="n">
-        <v>1.432807668521954</v>
+        <v>1.444012150314671</v>
       </c>
       <c r="G21" t="n">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="H21" t="n">
-        <v>308.4330098548108</v>
+        <v>318.4633516387071</v>
       </c>
       <c r="I21" t="n">
-        <v>352.4706864564008</v>
+        <v>366.7790861799265</v>
       </c>
       <c r="J21" t="n">
-        <v>441.9251817452804</v>
+        <v>459.8649491962267</v>
       </c>
     </row>
     <row r="22">
@@ -1103,28 +1103,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6851851851851852</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="F22" t="n">
-        <v>1.060681010026975</v>
+        <v>0.9609141102600749</v>
       </c>
       <c r="G22" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H22" t="n">
-        <v>365.2173913043478</v>
+        <v>369.9604743083004</v>
       </c>
       <c r="I22" t="n">
-        <v>245.0173133162312</v>
+        <v>224.8539018008575</v>
       </c>
       <c r="J22" t="n">
-        <v>387.3791514881125</v>
+        <v>355.5002400013557</v>
       </c>
     </row>
   </sheetData>

--- a/reports_pdf/brasil/risk-pt/Cases/IRRD/recife.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/IRRD/recife.xlsx
@@ -423,28 +423,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17133</v>
+        <v>17377</v>
       </c>
       <c r="D2" t="n">
-        <v>96</v>
+        <v>244</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6394160583941606</v>
+        <v>0.6070038910505836</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7934835734211544</v>
+        <v>0.8160402517345029</v>
       </c>
       <c r="G2" t="n">
-        <v>3421</v>
+        <v>3291</v>
       </c>
       <c r="H2" t="n">
-        <v>207.871657935976</v>
+        <v>199.97241340757</v>
       </c>
       <c r="I2" t="n">
-        <v>2714.507304673769</v>
+        <v>2685.588468458249</v>
       </c>
       <c r="J2" t="n">
-        <v>164.9427459520181</v>
+        <v>163.1855385770695</v>
       </c>
     </row>
     <row r="3">
@@ -457,28 +457,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3723</v>
+        <v>3777</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6308411214953271</v>
+        <v>0.3533834586466165</v>
       </c>
       <c r="F3" t="n">
-        <v>0.891126182961318</v>
+        <v>0.8634242060112207</v>
       </c>
       <c r="G3" t="n">
-        <v>1026</v>
+        <v>996</v>
       </c>
       <c r="H3" t="n">
-        <v>146.0918299639184</v>
+        <v>141.8201390293009</v>
       </c>
       <c r="I3" t="n">
-        <v>914.2954637183122</v>
+        <v>859.9705091871758</v>
       </c>
       <c r="J3" t="n">
-        <v>130.1862547975805</v>
+        <v>122.4509409377751</v>
       </c>
     </row>
     <row r="4">
@@ -491,28 +491,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2983</v>
+        <v>3006</v>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5290322580645161</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7559226011960538</v>
+        <v>0.7047889163990025</v>
       </c>
       <c r="G4" t="n">
-        <v>678</v>
+        <v>655</v>
       </c>
       <c r="H4" t="n">
-        <v>172.74677564831</v>
+        <v>166.8866342915089</v>
       </c>
       <c r="I4" t="n">
-        <v>512.5155236109244</v>
+        <v>461.6367402413467</v>
       </c>
       <c r="J4" t="n">
-        <v>130.5831919963016</v>
+        <v>117.6198501437892</v>
       </c>
     </row>
     <row r="5">
@@ -525,28 +525,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>594</v>
+        <v>623</v>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9076923076923077</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="F5" t="n">
-        <v>1.239055579474874</v>
+        <v>1.103776521615171</v>
       </c>
       <c r="G5" t="n">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="H5" t="n">
-        <v>84.18300943182007</v>
+        <v>88.05985855039073</v>
       </c>
       <c r="I5" t="n">
-        <v>376.6728961603617</v>
+        <v>351.0009338736244</v>
       </c>
       <c r="J5" t="n">
-        <v>104.3074275334826</v>
+        <v>97.19840436467425</v>
       </c>
     </row>
     <row r="6">
@@ -559,28 +559,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>1.625</v>
+        <v>0.875</v>
       </c>
       <c r="F6" t="n">
-        <v>1.315540831717302</v>
+        <v>1.354826546003016</v>
       </c>
       <c r="G6" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H6" t="n">
-        <v>24.34518609746667</v>
+        <v>25.49084191381804</v>
       </c>
       <c r="I6" t="n">
-        <v>111.8209706959707</v>
+        <v>120.5795625942685</v>
       </c>
       <c r="J6" t="n">
-        <v>32.0270863669738</v>
+        <v>34.53566930480702</v>
       </c>
     </row>
     <row r="7">
@@ -593,28 +593,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2154</v>
+        <v>2175</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5740740740740741</v>
+        <v>0.4608695652173913</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7501117773171515</v>
+        <v>0.7274314435138517</v>
       </c>
       <c r="G7" t="n">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="H7" t="n">
-        <v>153.7190979401641</v>
+        <v>146.7866680330586</v>
       </c>
       <c r="I7" t="n">
-        <v>382.5570064317473</v>
+        <v>354.2591129912458</v>
       </c>
       <c r="J7" t="n">
-        <v>115.3065057634858</v>
+        <v>106.7772378158764</v>
       </c>
     </row>
     <row r="8">
@@ -627,28 +627,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6938775510204082</v>
+        <v>0.3617021276595745</v>
       </c>
       <c r="F8" t="n">
-        <v>0.75839666313856</v>
+        <v>0.7641500283144175</v>
       </c>
       <c r="G8" t="n">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="H8" t="n">
-        <v>110.1193926046134</v>
+        <v>101.4257563463545</v>
       </c>
       <c r="I8" t="n">
-        <v>172.9144391955917</v>
+        <v>160.4715059460277</v>
       </c>
       <c r="J8" t="n">
-        <v>83.51417989818384</v>
+        <v>77.50449458387797</v>
       </c>
     </row>
     <row r="9">
@@ -661,28 +661,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1033</v>
+        <v>1050</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8627450980392157</v>
+        <v>1.2</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7727098785961566</v>
+        <v>0.8364101127881941</v>
       </c>
       <c r="G9" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H9" t="n">
-        <v>143.8274577388043</v>
+        <v>145.0946600096307</v>
       </c>
       <c r="I9" t="n">
-        <v>175.4051424413275</v>
+        <v>191.5379158284964</v>
       </c>
       <c r="J9" t="n">
-        <v>111.1368974081453</v>
+        <v>121.3586409436199</v>
       </c>
     </row>
     <row r="10">
@@ -695,28 +695,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1.293461829176115</v>
+        <v>1.24448223733938</v>
       </c>
       <c r="G10" t="n">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H10" t="n">
-        <v>80.83669556757376</v>
+        <v>69.39079177039517</v>
       </c>
       <c r="I10" t="n">
-        <v>146.161186696901</v>
+        <v>120.7147770219199</v>
       </c>
       <c r="J10" t="n">
-        <v>104.5591801133867</v>
+        <v>86.35560779317244</v>
       </c>
     </row>
     <row r="11">
@@ -729,28 +729,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8739811846026425</v>
+        <v>0.9018723410652275</v>
       </c>
       <c r="G11" t="n">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H11" t="n">
-        <v>104.4992324711546</v>
+        <v>100.8958106618045</v>
       </c>
       <c r="I11" t="n">
-        <v>126.7272717673832</v>
+        <v>126.2621277491318</v>
       </c>
       <c r="J11" t="n">
-        <v>91.33036298520663</v>
+        <v>90.99514096523554</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="F12" t="n">
-        <v>1.273032762362705</v>
+        <v>1.174589538919481</v>
       </c>
       <c r="G12" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H12" t="n">
-        <v>87.16533212555227</v>
+        <v>84.60164588656544</v>
       </c>
       <c r="I12" t="n">
-        <v>129.8493417609959</v>
+        <v>116.2843643530286</v>
       </c>
       <c r="J12" t="n">
-        <v>110.9643235380544</v>
+        <v>99.37220823373013</v>
       </c>
     </row>
     <row r="13">
@@ -797,28 +797,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5344440922244126</v>
+        <v>0.5708830156198578</v>
       </c>
       <c r="G13" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13" t="n">
-        <v>72.41897023756954</v>
+        <v>71.53581206394065</v>
       </c>
       <c r="I13" t="n">
-        <v>43.82441556240183</v>
+        <v>46.24152426520848</v>
       </c>
       <c r="J13" t="n">
-        <v>38.7038908084446</v>
+        <v>40.83858011587784</v>
       </c>
     </row>
     <row r="14">
@@ -831,28 +831,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="F14" t="n">
-        <v>3.022448979591837</v>
+        <v>2.549921507064365</v>
       </c>
       <c r="G14" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H14" t="n">
-        <v>20.3822600220499</v>
+        <v>25.94105820988169</v>
       </c>
       <c r="I14" t="n">
-        <v>66.4938775510204</v>
+        <v>71.39780219780221</v>
       </c>
       <c r="J14" t="n">
-        <v>61.6043410054202</v>
+        <v>66.14766224538593</v>
       </c>
     </row>
     <row r="15">
@@ -865,28 +865,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9594596168333501</v>
+        <v>0.9483682237543795</v>
       </c>
       <c r="G15" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H15" t="n">
-        <v>103.010301030103</v>
+        <v>107.010701070107</v>
       </c>
       <c r="I15" t="n">
-        <v>98.82434053383507</v>
+        <v>101.4753999417186</v>
       </c>
       <c r="J15" t="n">
-        <v>98.83422395623069</v>
+        <v>101.4855484965683</v>
       </c>
     </row>
     <row r="16">
@@ -899,28 +899,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="F16" t="n">
-        <v>0.992409747472075</v>
+        <v>0.8288110956701564</v>
       </c>
       <c r="G16" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H16" t="n">
-        <v>136.1689742630244</v>
+        <v>132.0111429878175</v>
       </c>
       <c r="I16" t="n">
-        <v>130.0056769188418</v>
+        <v>105.2590091501099</v>
       </c>
       <c r="J16" t="n">
-        <v>135.1354173618995</v>
+        <v>109.4123000604028</v>
       </c>
     </row>
     <row r="17">
@@ -933,28 +933,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E17" t="n">
         <v>0.5555555555555556</v>
       </c>
       <c r="F17" t="n">
-        <v>1.421596517394837</v>
+        <v>1.385315338256515</v>
       </c>
       <c r="G17" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H17" t="n">
-        <v>123.9143022582513</v>
+        <v>127.3885350318471</v>
       </c>
       <c r="I17" t="n">
-        <v>152.1108273612475</v>
+        <v>152.3846872082166</v>
       </c>
       <c r="J17" t="n">
-        <v>176.1561405457412</v>
+        <v>176.4732914976452</v>
       </c>
     </row>
     <row r="18">
@@ -973,22 +973,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9071505525287037</v>
+        <v>0.7132730015082956</v>
       </c>
       <c r="G18" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H18" t="n">
-        <v>60.41365585538629</v>
+        <v>55.67532990594422</v>
       </c>
       <c r="I18" t="n">
-        <v>46.26467817896389</v>
+        <v>33.5238310708899</v>
       </c>
       <c r="J18" t="n">
-        <v>54.80428128949263</v>
+        <v>39.71170967197741</v>
       </c>
     </row>
     <row r="19">
@@ -1001,28 +1001,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9230769230769231</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="F19" t="n">
-        <v>1.308166833166833</v>
+        <v>1.198643023643024</v>
       </c>
       <c r="G19" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H19" t="n">
-        <v>53.5242762328425</v>
+        <v>63.03970311868116</v>
       </c>
       <c r="I19" t="n">
-        <v>58.8675074925075</v>
+        <v>63.52808025308027</v>
       </c>
       <c r="J19" t="n">
-        <v>70.01868293706437</v>
+        <v>75.56210035573454</v>
       </c>
     </row>
     <row r="20">
@@ -1035,28 +1035,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1.642857142857143</v>
+        <v>1.384615384615385</v>
       </c>
       <c r="F20" t="n">
-        <v>1.340667155843684</v>
+        <v>1.488779912652093</v>
       </c>
       <c r="G20" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H20" t="n">
-        <v>96.84245764636961</v>
+        <v>88.47335636828828</v>
       </c>
       <c r="I20" t="n">
-        <v>108.5940396233384</v>
+        <v>110.1697135362549</v>
       </c>
       <c r="J20" t="n">
-        <v>129.8335022576708</v>
+        <v>131.7173557660177</v>
       </c>
     </row>
     <row r="21">
@@ -1069,28 +1069,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="F21" t="n">
-        <v>1.444012150314671</v>
+        <v>1.487997112720686</v>
       </c>
       <c r="G21" t="n">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="H21" t="n">
-        <v>318.4633516387071</v>
+        <v>307.1792171318237</v>
       </c>
       <c r="I21" t="n">
-        <v>366.7790861799265</v>
+        <v>364.5592926165681</v>
       </c>
       <c r="J21" t="n">
-        <v>459.8649491962267</v>
+        <v>457.0817881799545</v>
       </c>
     </row>
     <row r="22">
@@ -1103,28 +1103,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3272727272727273</v>
+        <v>0.8208955223880597</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9609141102600749</v>
+        <v>0.9557359195808184</v>
       </c>
       <c r="G22" t="n">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="H22" t="n">
-        <v>369.9604743083004</v>
+        <v>395.2569169960474</v>
       </c>
       <c r="I22" t="n">
-        <v>224.8539018008575</v>
+        <v>238.9339798952046</v>
       </c>
       <c r="J22" t="n">
-        <v>355.5002400013557</v>
+        <v>377.7612330358966</v>
       </c>
     </row>
   </sheetData>

--- a/reports_pdf/brasil/risk-pt/Cases/IRRD/recife.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/IRRD/recife.xlsx
@@ -423,28 +423,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17377</v>
+        <v>17685</v>
       </c>
       <c r="D2" t="n">
-        <v>244</v>
+        <v>308</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6070038910505836</v>
+        <v>0.9025069637883009</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8160402517345029</v>
+        <v>0.8542773778999441</v>
       </c>
       <c r="G2" t="n">
-        <v>3291</v>
+        <v>3320</v>
       </c>
       <c r="H2" t="n">
-        <v>199.97241340757</v>
+        <v>201.734552571599</v>
       </c>
       <c r="I2" t="n">
-        <v>2685.588468458249</v>
+        <v>2836.200894627814</v>
       </c>
       <c r="J2" t="n">
-        <v>163.1855385770695</v>
+        <v>172.3372646026841</v>
       </c>
     </row>
     <row r="3">
@@ -457,28 +457,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3777</v>
+        <v>3870</v>
       </c>
       <c r="D3" t="n">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3533834586466165</v>
+        <v>0.6567796610169492</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8634242060112207</v>
+        <v>0.8576686713123856</v>
       </c>
       <c r="G3" t="n">
-        <v>996</v>
+        <v>1009</v>
       </c>
       <c r="H3" t="n">
-        <v>141.8201390293009</v>
+        <v>143.6712051009685</v>
       </c>
       <c r="I3" t="n">
-        <v>859.9705091871758</v>
+        <v>865.3876893541971</v>
       </c>
       <c r="J3" t="n">
-        <v>122.4509409377751</v>
+        <v>123.2222915847969</v>
       </c>
     </row>
     <row r="4">
@@ -491,28 +491,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3006</v>
+        <v>3044</v>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.592</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7047889163990025</v>
+        <v>0.6896177452278314</v>
       </c>
       <c r="G4" t="n">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="H4" t="n">
-        <v>166.8866342915089</v>
+        <v>160.7717041800643</v>
       </c>
       <c r="I4" t="n">
-        <v>461.6367402413467</v>
+        <v>435.1487972387616</v>
       </c>
       <c r="J4" t="n">
-        <v>117.6198501437892</v>
+        <v>110.8710201330919</v>
       </c>
     </row>
     <row r="5">
@@ -525,28 +525,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7419354838709677</v>
+        <v>1.1875</v>
       </c>
       <c r="F5" t="n">
-        <v>1.103776521615171</v>
+        <v>1.101461706800356</v>
       </c>
       <c r="G5" t="n">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="H5" t="n">
-        <v>88.05985855039073</v>
+        <v>94.70588561079758</v>
       </c>
       <c r="I5" t="n">
-        <v>351.0009338736244</v>
+        <v>376.6999037257218</v>
       </c>
       <c r="J5" t="n">
-        <v>97.19840436467425</v>
+        <v>104.3149064089084</v>
       </c>
     </row>
     <row r="6">
@@ -559,28 +559,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.875</v>
+        <v>1.071428571428571</v>
       </c>
       <c r="F6" t="n">
-        <v>1.354826546003016</v>
+        <v>1.373433988980207</v>
       </c>
       <c r="G6" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H6" t="n">
-        <v>25.49084191381804</v>
+        <v>26.06366982199373</v>
       </c>
       <c r="I6" t="n">
-        <v>120.5795625942685</v>
+        <v>124.9824929971989</v>
       </c>
       <c r="J6" t="n">
-        <v>34.53566930480702</v>
+        <v>35.79673001108389</v>
       </c>
     </row>
     <row r="7">
@@ -593,28 +593,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2175</v>
+        <v>2231</v>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4608695652173913</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7274314435138517</v>
+        <v>0.7543856214114257</v>
       </c>
       <c r="G7" t="n">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="H7" t="n">
-        <v>146.7866680330586</v>
+        <v>148.8965380047864</v>
       </c>
       <c r="I7" t="n">
-        <v>354.2591129912458</v>
+        <v>372.6664969772443</v>
       </c>
       <c r="J7" t="n">
-        <v>106.7772378158764</v>
+        <v>112.3254073487507</v>
       </c>
     </row>
     <row r="8">
@@ -627,28 +627,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3617021276595745</v>
+        <v>0.5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7641500283144175</v>
+        <v>0.7532256585665184</v>
       </c>
       <c r="G8" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H8" t="n">
-        <v>101.4257563463545</v>
+        <v>102.3917159306055</v>
       </c>
       <c r="I8" t="n">
-        <v>160.4715059460277</v>
+        <v>159.6838396161019</v>
       </c>
       <c r="J8" t="n">
-        <v>77.50449458387797</v>
+        <v>77.12406766358617</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1050</v>
+        <v>1063</v>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
-        <v>1.2</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8364101127881941</v>
+        <v>0.8724082958452007</v>
       </c>
       <c r="G9" t="n">
         <v>229</v>
@@ -679,10 +679,10 @@
         <v>145.0946600096307</v>
       </c>
       <c r="I9" t="n">
-        <v>191.5379158284964</v>
+        <v>199.781499748551</v>
       </c>
       <c r="J9" t="n">
-        <v>121.3586409436199</v>
+        <v>126.5817850752407</v>
       </c>
     </row>
     <row r="10">
@@ -695,28 +695,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F10" t="n">
-        <v>1.24448223733938</v>
+        <v>1.065910808767952</v>
       </c>
       <c r="G10" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" t="n">
-        <v>69.39079177039517</v>
+        <v>68.67542278307151</v>
       </c>
       <c r="I10" t="n">
-        <v>120.7147770219199</v>
+        <v>102.3274376417233</v>
       </c>
       <c r="J10" t="n">
-        <v>86.35560779317244</v>
+        <v>73.20187544118477</v>
       </c>
     </row>
     <row r="11">
@@ -729,28 +729,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="D11" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9018723410652275</v>
+        <v>0.9728083016563607</v>
       </c>
       <c r="G11" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H11" t="n">
-        <v>100.8958106618045</v>
+        <v>100.1751262999344</v>
       </c>
       <c r="I11" t="n">
-        <v>126.2621277491318</v>
+        <v>135.2203539302341</v>
       </c>
       <c r="J11" t="n">
-        <v>90.99514096523554</v>
+        <v>97.45119448405063</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1025641025641026</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="F12" t="n">
-        <v>1.174589538919481</v>
+        <v>1.031427145757088</v>
       </c>
       <c r="G12" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H12" t="n">
-        <v>84.60164588656544</v>
+        <v>88.01989420521454</v>
       </c>
       <c r="I12" t="n">
-        <v>116.2843643530286</v>
+        <v>106.2369960129801</v>
       </c>
       <c r="J12" t="n">
-        <v>99.37220823373013</v>
+        <v>90.78610824992531</v>
       </c>
     </row>
     <row r="13">
@@ -797,28 +797,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7333333333333333</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5708830156198578</v>
+        <v>0.6423115870484292</v>
       </c>
       <c r="G13" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H13" t="n">
-        <v>71.53581206394065</v>
+        <v>75.06844475845624</v>
       </c>
       <c r="I13" t="n">
-        <v>46.24152426520848</v>
+        <v>54.59648489911648</v>
       </c>
       <c r="J13" t="n">
-        <v>40.83858011587784</v>
+        <v>48.21733189006136</v>
       </c>
     </row>
     <row r="14">
@@ -831,28 +831,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6923076923076923</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>2.549921507064365</v>
+        <v>2.204683411826269</v>
       </c>
       <c r="G14" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H14" t="n">
-        <v>25.94105820988169</v>
+        <v>36.13218822090664</v>
       </c>
       <c r="I14" t="n">
-        <v>71.39780219780221</v>
+        <v>85.9826530612245</v>
       </c>
       <c r="J14" t="n">
-        <v>66.14766224538593</v>
+        <v>79.66003600361739</v>
       </c>
     </row>
     <row r="15">
@@ -865,28 +865,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5652173913043478</v>
+        <v>0.72</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9483682237543795</v>
+        <v>0.9485467951829508</v>
       </c>
       <c r="G15" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H15" t="n">
-        <v>107.010701070107</v>
+        <v>106.010601060106</v>
       </c>
       <c r="I15" t="n">
-        <v>101.4753999417186</v>
+        <v>100.5459602893928</v>
       </c>
       <c r="J15" t="n">
-        <v>101.4855484965683</v>
+        <v>100.5560158909819</v>
       </c>
     </row>
     <row r="16">
@@ -899,28 +899,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2758620689655172</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8288110956701564</v>
+        <v>0.7157076473942944</v>
       </c>
       <c r="G16" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H16" t="n">
-        <v>132.0111429878175</v>
+        <v>135.1295164442227</v>
       </c>
       <c r="I16" t="n">
-        <v>105.2590091501099</v>
+        <v>93.04199416125827</v>
       </c>
       <c r="J16" t="n">
-        <v>109.4123000604028</v>
+        <v>96.71322830782324</v>
       </c>
     </row>
     <row r="17">
@@ -933,28 +933,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="F17" t="n">
-        <v>1.385315338256515</v>
+        <v>1.336974789915967</v>
       </c>
       <c r="G17" t="n">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="H17" t="n">
-        <v>127.3885350318471</v>
+        <v>145.9177764910249</v>
       </c>
       <c r="I17" t="n">
-        <v>152.3846872082166</v>
+        <v>168.4588235294118</v>
       </c>
       <c r="J17" t="n">
-        <v>176.4732914976452</v>
+        <v>195.088388569093</v>
       </c>
     </row>
     <row r="18">
@@ -967,28 +967,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7132730015082956</v>
+        <v>0.6085110967463908</v>
       </c>
       <c r="G18" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H18" t="n">
-        <v>55.67532990594422</v>
+        <v>62.78281883010733</v>
       </c>
       <c r="I18" t="n">
-        <v>33.5238310708899</v>
+        <v>32.25108812755871</v>
       </c>
       <c r="J18" t="n">
-        <v>39.71170967197741</v>
+        <v>38.20404194313857</v>
       </c>
     </row>
     <row r="19">
@@ -1001,28 +1001,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
-        <v>1.066666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="F19" t="n">
-        <v>1.198643023643024</v>
+        <v>1.156976356976357</v>
       </c>
       <c r="G19" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H19" t="n">
-        <v>63.03970311868116</v>
+        <v>66.60798820087066</v>
       </c>
       <c r="I19" t="n">
-        <v>63.52808025308027</v>
+        <v>64.79067599067599</v>
       </c>
       <c r="J19" t="n">
-        <v>75.56210035573454</v>
+        <v>77.06386753416751</v>
       </c>
     </row>
     <row r="20">
@@ -1035,28 +1035,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D20" t="n">
         <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>1.384615384615385</v>
+        <v>0.3125</v>
       </c>
       <c r="F20" t="n">
-        <v>1.488779912652093</v>
+        <v>1.442513678885859</v>
       </c>
       <c r="G20" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H20" t="n">
-        <v>88.47335636828828</v>
+        <v>83.69101278081324</v>
       </c>
       <c r="I20" t="n">
-        <v>110.1697135362549</v>
+        <v>100.9759575220102</v>
       </c>
       <c r="J20" t="n">
-        <v>131.7173557660177</v>
+        <v>120.7254307361344</v>
       </c>
     </row>
     <row r="21">
@@ -1069,28 +1069,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="D21" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4912280701754386</v>
+        <v>0.6835443037974683</v>
       </c>
       <c r="F21" t="n">
-        <v>1.487997112720686</v>
+        <v>1.516258543875427</v>
       </c>
       <c r="G21" t="n">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H21" t="n">
-        <v>307.1792171318237</v>
+        <v>300.9102535168886</v>
       </c>
       <c r="I21" t="n">
-        <v>364.5592926165681</v>
+        <v>363.9020505301024</v>
       </c>
       <c r="J21" t="n">
-        <v>457.0817881799545</v>
+        <v>456.257742834703</v>
       </c>
     </row>
     <row r="22">
@@ -1103,28 +1103,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="D22" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8208955223880597</v>
+        <v>0.7702702702702703</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9557359195808184</v>
+        <v>0.9348221486670474</v>
       </c>
       <c r="G22" t="n">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H22" t="n">
-        <v>395.2569169960474</v>
+        <v>393.6758893280632</v>
       </c>
       <c r="I22" t="n">
-        <v>238.9339798952046</v>
+        <v>232.7707150180948</v>
       </c>
       <c r="J22" t="n">
-        <v>377.7612330358966</v>
+        <v>368.0169407400708</v>
       </c>
     </row>
   </sheetData>

--- a/reports_pdf/brasil/risk-pt/Cases/IRRD/recife.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/IRRD/recife.xlsx
@@ -423,28 +423,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17685</v>
+        <v>17866</v>
       </c>
       <c r="D2" t="n">
-        <v>308</v>
+        <v>181</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9025069637883009</v>
+        <v>1.112291350531108</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8542773778999441</v>
+        <v>0.9138588680118851</v>
       </c>
       <c r="G2" t="n">
-        <v>3320</v>
+        <v>3034</v>
       </c>
       <c r="H2" t="n">
-        <v>201.734552571599</v>
+        <v>184.3562146091059</v>
       </c>
       <c r="I2" t="n">
-        <v>2836.200894627814</v>
+        <v>2772.647805548059</v>
       </c>
       <c r="J2" t="n">
-        <v>172.3372646026841</v>
+        <v>168.4755615936337</v>
       </c>
     </row>
     <row r="3">
@@ -457,28 +457,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3870</v>
+        <v>3919</v>
       </c>
       <c r="D3" t="n">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6567796610169492</v>
+        <v>0.7871485943775101</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8576686713123856</v>
+        <v>0.8546169507523339</v>
       </c>
       <c r="G3" t="n">
-        <v>1009</v>
+        <v>926</v>
       </c>
       <c r="H3" t="n">
-        <v>143.6712051009685</v>
+        <v>131.8528601818601</v>
       </c>
       <c r="I3" t="n">
-        <v>865.3876893541971</v>
+        <v>791.3752963966612</v>
       </c>
       <c r="J3" t="n">
-        <v>123.2222915847969</v>
+        <v>112.6836893165951</v>
       </c>
     </row>
     <row r="4">
@@ -491,28 +491,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3044</v>
+        <v>3072</v>
       </c>
       <c r="D4" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>0.592</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6896177452278314</v>
+        <v>0.6805875477829998</v>
       </c>
       <c r="G4" t="n">
-        <v>631</v>
+        <v>565</v>
       </c>
       <c r="H4" t="n">
-        <v>160.7717041800643</v>
+        <v>143.9556463735916</v>
       </c>
       <c r="I4" t="n">
-        <v>435.1487972387616</v>
+        <v>384.5319644973949</v>
       </c>
       <c r="J4" t="n">
-        <v>110.8710201330919</v>
+        <v>97.97442035491942</v>
       </c>
     </row>
     <row r="5">
@@ -525,28 +525,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>662</v>
+        <v>688</v>
       </c>
       <c r="D5" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>1.1875</v>
+        <v>1.093023255813953</v>
       </c>
       <c r="F5" t="n">
-        <v>1.101461706800356</v>
+        <v>1.032426288139396</v>
       </c>
       <c r="G5" t="n">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="H5" t="n">
-        <v>94.70588561079758</v>
+        <v>97.75198134681739</v>
       </c>
       <c r="I5" t="n">
-        <v>376.6999037257218</v>
+        <v>364.4464797132066</v>
       </c>
       <c r="J5" t="n">
-        <v>104.3149064089084</v>
+        <v>100.9217152601661</v>
       </c>
     </row>
     <row r="6">
@@ -559,28 +559,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1.071428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="n">
-        <v>1.373433988980207</v>
+        <v>1.349624465170683</v>
       </c>
       <c r="G6" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H6" t="n">
-        <v>26.06366982199373</v>
+        <v>23.19953028111529</v>
       </c>
       <c r="I6" t="n">
-        <v>124.9824929971989</v>
+        <v>109.3195816788254</v>
       </c>
       <c r="J6" t="n">
-        <v>35.79673001108389</v>
+        <v>31.3106536478613</v>
       </c>
     </row>
     <row r="7">
@@ -593,28 +593,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2231</v>
+        <v>2252</v>
       </c>
       <c r="D7" t="n">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8679245283018868</v>
+        <v>1.020833333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7543856214114257</v>
+        <v>0.789215093740898</v>
       </c>
       <c r="G7" t="n">
-        <v>494</v>
+        <v>445</v>
       </c>
       <c r="H7" t="n">
-        <v>148.8965380047864</v>
+        <v>134.1274482026922</v>
       </c>
       <c r="I7" t="n">
-        <v>372.6664969772443</v>
+        <v>351.2007167146996</v>
       </c>
       <c r="J7" t="n">
-        <v>112.3254073487507</v>
+        <v>105.8554066065152</v>
       </c>
     </row>
     <row r="8">
@@ -627,28 +627,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7532256585665184</v>
+        <v>0.7868391039446695</v>
       </c>
       <c r="G8" t="n">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="H8" t="n">
-        <v>102.3917159306055</v>
+        <v>81.62358486920907</v>
       </c>
       <c r="I8" t="n">
-        <v>159.6838396161019</v>
+        <v>132.9758085666491</v>
       </c>
       <c r="J8" t="n">
-        <v>77.12406766358617</v>
+        <v>64.22462837924014</v>
       </c>
     </row>
     <row r="9">
@@ -661,28 +661,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1063</v>
+        <v>1079</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9411764705882353</v>
+        <v>1.210526315789474</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8724082958452007</v>
+        <v>0.9786739600056017</v>
       </c>
       <c r="G9" t="n">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="H9" t="n">
-        <v>145.0946600096307</v>
+        <v>134.3234407076058</v>
       </c>
       <c r="I9" t="n">
-        <v>199.781499748551</v>
+        <v>207.4788795211876</v>
       </c>
       <c r="J9" t="n">
-        <v>126.5817850752407</v>
+        <v>131.4588536388902</v>
       </c>
     </row>
     <row r="10">
@@ -695,28 +695,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="F10" t="n">
-        <v>1.065910808767952</v>
+        <v>0.938205181062324</v>
       </c>
       <c r="G10" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="H10" t="n">
-        <v>68.67542278307151</v>
+        <v>62.95247088448222</v>
       </c>
       <c r="I10" t="n">
-        <v>102.3274376417233</v>
+        <v>82.56205593348452</v>
       </c>
       <c r="J10" t="n">
-        <v>73.20187544118477</v>
+        <v>59.06233434449631</v>
       </c>
     </row>
     <row r="11">
@@ -729,28 +729,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>646</v>
+        <v>665</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>0.896551724137931</v>
+        <v>1.2</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9728083016563607</v>
+        <v>1.061819290667349</v>
       </c>
       <c r="G11" t="n">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H11" t="n">
-        <v>100.1751262999344</v>
+        <v>104.4992324711546</v>
       </c>
       <c r="I11" t="n">
-        <v>135.2203539302341</v>
+        <v>153.9637971467657</v>
       </c>
       <c r="J11" t="n">
-        <v>97.45119448405063</v>
+        <v>110.9593008978038</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F12" t="n">
-        <v>1.031427145757088</v>
+        <v>0.9361890505189929</v>
       </c>
       <c r="G12" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H12" t="n">
-        <v>88.01989420521454</v>
+        <v>84.60164588656544</v>
       </c>
       <c r="I12" t="n">
-        <v>106.2369960129801</v>
+        <v>92.6827160013803</v>
       </c>
       <c r="J12" t="n">
-        <v>90.78610824992531</v>
+        <v>79.20313453488775</v>
       </c>
     </row>
     <row r="13">
@@ -797,28 +797,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6423115870484292</v>
+        <v>0.8685020632389053</v>
       </c>
       <c r="G13" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H13" t="n">
-        <v>75.06844475845624</v>
+        <v>69.76949571668285</v>
       </c>
       <c r="I13" t="n">
-        <v>54.59648489911648</v>
+        <v>68.61166299587352</v>
       </c>
       <c r="J13" t="n">
-        <v>48.21733189006136</v>
+        <v>60.59495098107703</v>
       </c>
     </row>
     <row r="14">
@@ -831,28 +831,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>1.583333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="F14" t="n">
-        <v>2.204683411826269</v>
+        <v>2.014207221350079</v>
       </c>
       <c r="G14" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H14" t="n">
-        <v>36.13218822090664</v>
+        <v>42.61745277337706</v>
       </c>
       <c r="I14" t="n">
-        <v>85.9826530612245</v>
+        <v>92.65353218210362</v>
       </c>
       <c r="J14" t="n">
-        <v>79.66003600361739</v>
+        <v>85.84038113168201</v>
       </c>
     </row>
     <row r="15">
@@ -865,28 +865,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>0.72</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9485467951829508</v>
+        <v>0.9643643110004666</v>
       </c>
       <c r="G15" t="n">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H15" t="n">
-        <v>106.010601060106</v>
+        <v>96.00960096009601</v>
       </c>
       <c r="I15" t="n">
-        <v>100.5459602893928</v>
+        <v>92.5789738560448</v>
       </c>
       <c r="J15" t="n">
-        <v>100.5560158909819</v>
+        <v>92.58823267931272</v>
       </c>
     </row>
     <row r="16">
@@ -899,28 +899,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7157076473942944</v>
+        <v>0.6590446721266681</v>
       </c>
       <c r="G16" t="n">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H16" t="n">
-        <v>135.1295164442227</v>
+        <v>126.813853893809</v>
       </c>
       <c r="I16" t="n">
-        <v>93.04199416125827</v>
+        <v>80.4034499994535</v>
       </c>
       <c r="J16" t="n">
-        <v>96.71322830782324</v>
+        <v>83.57599476056454</v>
       </c>
     </row>
     <row r="17">
@@ -933,28 +933,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="F17" t="n">
-        <v>1.336974789915967</v>
+        <v>1.328811524609844</v>
       </c>
       <c r="G17" t="n">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="H17" t="n">
-        <v>145.9177764910249</v>
+        <v>137.8112333526346</v>
       </c>
       <c r="I17" t="n">
-        <v>168.4588235294118</v>
+        <v>158.1285714285714</v>
       </c>
       <c r="J17" t="n">
-        <v>195.088388569093</v>
+        <v>183.1251550996774</v>
       </c>
     </row>
     <row r="18">
@@ -967,28 +967,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6085110967463908</v>
+        <v>0.6524671407024348</v>
       </c>
       <c r="G18" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H18" t="n">
-        <v>62.78281883010733</v>
+        <v>61.59823734274681</v>
       </c>
       <c r="I18" t="n">
-        <v>32.25108812755871</v>
+        <v>33.92829131652661</v>
       </c>
       <c r="J18" t="n">
-        <v>38.20404194313857</v>
+        <v>40.19082579133195</v>
       </c>
     </row>
     <row r="19">
@@ -1001,28 +1001,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
-        <v>1.333333333333333</v>
+        <v>2.375</v>
       </c>
       <c r="F19" t="n">
-        <v>1.156976356976357</v>
+        <v>1.258166833166833</v>
       </c>
       <c r="G19" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H19" t="n">
-        <v>66.60798820087066</v>
+        <v>68.98684492233032</v>
       </c>
       <c r="I19" t="n">
-        <v>64.79067599067599</v>
+        <v>72.97367632367632</v>
       </c>
       <c r="J19" t="n">
-        <v>77.06386753416751</v>
+        <v>86.79696020609975</v>
       </c>
     </row>
     <row r="20">
@@ -1035,16 +1035,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3125</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="F20" t="n">
-        <v>1.442513678885859</v>
+        <v>1.467218297575441</v>
       </c>
       <c r="G20" t="n">
         <v>70</v>
@@ -1053,10 +1053,10 @@
         <v>83.69101278081324</v>
       </c>
       <c r="I20" t="n">
-        <v>100.9759575220102</v>
+        <v>102.7052808302808</v>
       </c>
       <c r="J20" t="n">
-        <v>120.7254307361344</v>
+        <v>122.7929852946292</v>
       </c>
     </row>
     <row r="21">
@@ -1069,28 +1069,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="D21" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6835443037974683</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>1.516258543875427</v>
+        <v>1.551972829589712</v>
       </c>
       <c r="G21" t="n">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="H21" t="n">
-        <v>300.9102535168886</v>
+        <v>231.9516537526016</v>
       </c>
       <c r="I21" t="n">
-        <v>363.9020505301024</v>
+        <v>287.1149734740968</v>
       </c>
       <c r="J21" t="n">
-        <v>456.257742834703</v>
+        <v>359.9826644024383</v>
       </c>
     </row>
     <row r="22">
@@ -1103,16 +1103,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="D22" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7702702702702703</v>
+        <v>1.591836734693878</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9348221486670474</v>
+        <v>0.9816344045667117</v>
       </c>
       <c r="G22" t="n">
         <v>249</v>
@@ -1121,10 +1121,10 @@
         <v>393.6758893280632</v>
       </c>
       <c r="I22" t="n">
-        <v>232.7707150180948</v>
+        <v>244.4269667371112</v>
       </c>
       <c r="J22" t="n">
-        <v>368.0169407400708</v>
+        <v>386.445797212824</v>
       </c>
     </row>
   </sheetData>

--- a/reports_pdf/brasil/risk-pt/Cases/IRRD/recife.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/IRRD/recife.xlsx
@@ -423,28 +423,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17866</v>
+        <v>18102</v>
       </c>
       <c r="D2" t="n">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="E2" t="n">
-        <v>1.112291350531108</v>
+        <v>1.402321083172147</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9138588680118851</v>
+        <v>0.974256715208374</v>
       </c>
       <c r="G2" t="n">
-        <v>3034</v>
+        <v>2937</v>
       </c>
       <c r="H2" t="n">
-        <v>184.3562146091059</v>
+        <v>178.462162922526</v>
       </c>
       <c r="I2" t="n">
-        <v>2772.647805548059</v>
+        <v>2861.391972566994</v>
       </c>
       <c r="J2" t="n">
-        <v>168.4755615936337</v>
+        <v>173.8679606378819</v>
       </c>
     </row>
     <row r="3">
@@ -457,28 +457,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3919</v>
+        <v>3962</v>
       </c>
       <c r="D3" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7871485943775101</v>
+        <v>1.016483516483516</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8546169507523339</v>
+        <v>0.8513077992367633</v>
       </c>
       <c r="G3" t="n">
-        <v>926</v>
+        <v>874</v>
       </c>
       <c r="H3" t="n">
-        <v>131.8528601818601</v>
+        <v>124.4485958951898</v>
       </c>
       <c r="I3" t="n">
-        <v>791.3752963966612</v>
+        <v>744.0430165329311</v>
       </c>
       <c r="J3" t="n">
-        <v>112.6836893165951</v>
+        <v>105.9440602896393</v>
       </c>
     </row>
     <row r="4">
@@ -491,28 +491,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3072</v>
+        <v>3099</v>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7416666666666667</v>
+        <v>0.8532110091743119</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6805875477829998</v>
+        <v>0.6865193617095713</v>
       </c>
       <c r="G4" t="n">
-        <v>565</v>
+        <v>526</v>
       </c>
       <c r="H4" t="n">
-        <v>143.9556463735916</v>
+        <v>134.0188849424942</v>
       </c>
       <c r="I4" t="n">
-        <v>384.5319644973949</v>
+        <v>361.1091842592345</v>
       </c>
       <c r="J4" t="n">
-        <v>97.97442035491942</v>
+        <v>92.00655934774957</v>
       </c>
     </row>
     <row r="5">
@@ -525,28 +525,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>688</v>
+        <v>734</v>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E5" t="n">
-        <v>1.093023255813953</v>
+        <v>2.055555555555555</v>
       </c>
       <c r="F5" t="n">
-        <v>1.032426288139396</v>
+        <v>1.158009854899433</v>
       </c>
       <c r="G5" t="n">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="H5" t="n">
-        <v>97.75198134681739</v>
+        <v>103.844172818857</v>
       </c>
       <c r="I5" t="n">
-        <v>364.4464797132066</v>
+        <v>434.2536955872873</v>
       </c>
       <c r="J5" t="n">
-        <v>100.9217152601661</v>
+        <v>120.2525754981162</v>
       </c>
     </row>
     <row r="6">
@@ -559,28 +559,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0.4482758620689655</v>
       </c>
       <c r="F6" t="n">
-        <v>1.349624465170683</v>
+        <v>1.259817720191525</v>
       </c>
       <c r="G6" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H6" t="n">
-        <v>23.19953028111529</v>
+        <v>24.34518609746667</v>
       </c>
       <c r="I6" t="n">
-        <v>109.3195816788254</v>
+        <v>107.0845062162796</v>
       </c>
       <c r="J6" t="n">
-        <v>31.3106536478613</v>
+        <v>30.67049684694886</v>
       </c>
     </row>
     <row r="7">
@@ -593,28 +593,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2252</v>
+        <v>2301</v>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E7" t="n">
-        <v>1.020833333333333</v>
+        <v>1.726027397260274</v>
       </c>
       <c r="F7" t="n">
-        <v>0.789215093740898</v>
+        <v>0.899368299784515</v>
       </c>
       <c r="G7" t="n">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="H7" t="n">
-        <v>134.1274482026922</v>
+        <v>136.8401381663421</v>
       </c>
       <c r="I7" t="n">
-        <v>351.2007167146996</v>
+        <v>408.3132081021698</v>
       </c>
       <c r="J7" t="n">
-        <v>105.8554066065152</v>
+        <v>123.0696824049413</v>
       </c>
     </row>
     <row r="8">
@@ -627,28 +627,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>774</v>
+        <v>804</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7352941176470589</v>
+        <v>1.351351351351351</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7868391039446695</v>
+        <v>0.8632712211931134</v>
       </c>
       <c r="G8" t="n">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H8" t="n">
-        <v>81.62358486920907</v>
+        <v>84.52146362196206</v>
       </c>
       <c r="I8" t="n">
-        <v>132.9758085666491</v>
+        <v>151.0724637087949</v>
       </c>
       <c r="J8" t="n">
-        <v>64.22462837924014</v>
+        <v>72.96494711796049</v>
       </c>
     </row>
     <row r="9">
@@ -661,28 +661,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1079</v>
+        <v>1101</v>
       </c>
       <c r="D9" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E9" t="n">
-        <v>1.210526315789474</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9786739600056017</v>
+        <v>1.020188001519643</v>
       </c>
       <c r="G9" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H9" t="n">
-        <v>134.3234407076058</v>
+        <v>130.5218338951263</v>
       </c>
       <c r="I9" t="n">
-        <v>207.4788795211876</v>
+        <v>210.1587283130465</v>
       </c>
       <c r="J9" t="n">
-        <v>131.4588536388902</v>
+        <v>133.1568088761478</v>
       </c>
     </row>
     <row r="10">
@@ -695,28 +695,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7727272727272727</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.938205181062324</v>
+        <v>0.7477289905861334</v>
       </c>
       <c r="G10" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H10" t="n">
-        <v>62.95247088448222</v>
+        <v>65.0985778464532</v>
       </c>
       <c r="I10" t="n">
-        <v>82.56205593348452</v>
+        <v>68.04333814333813</v>
       </c>
       <c r="J10" t="n">
-        <v>59.06233434449631</v>
+        <v>48.67609390172127</v>
       </c>
     </row>
     <row r="11">
@@ -729,28 +729,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n">
-        <v>1.2</v>
+        <v>1.958333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>1.061819290667349</v>
+        <v>1.245235680479088</v>
       </c>
       <c r="G11" t="n">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H11" t="n">
-        <v>104.4992324711546</v>
+        <v>98.73375757619436</v>
       </c>
       <c r="I11" t="n">
-        <v>153.9637971467657</v>
+        <v>170.5972882256351</v>
       </c>
       <c r="J11" t="n">
-        <v>110.9593008978038</v>
+        <v>122.9467978016497</v>
       </c>
     </row>
     <row r="12">
@@ -763,28 +763,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7777777777777778</v>
+        <v>1.470588235294118</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9361890505189929</v>
+        <v>0.8248445127038669</v>
       </c>
       <c r="G12" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H12" t="n">
-        <v>84.60164588656544</v>
+        <v>83.74708380690315</v>
       </c>
       <c r="I12" t="n">
-        <v>92.6827160013803</v>
+        <v>80.83476224497896</v>
       </c>
       <c r="J12" t="n">
-        <v>79.20313453488775</v>
+        <v>69.07832253307494</v>
       </c>
     </row>
     <row r="13">
@@ -797,28 +797,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8685020632389053</v>
+        <v>1.123131692868535</v>
       </c>
       <c r="G13" t="n">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="H13" t="n">
-        <v>69.76949571668285</v>
+        <v>60.05475580676499</v>
       </c>
       <c r="I13" t="n">
-        <v>68.61166299587352</v>
+        <v>76.37295511506039</v>
       </c>
       <c r="J13" t="n">
-        <v>60.59495098107703</v>
+        <v>67.44939955405846</v>
       </c>
     </row>
     <row r="14">
@@ -831,28 +831,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>2.666666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="F14" t="n">
-        <v>2.014207221350079</v>
+        <v>1.966588173731031</v>
       </c>
       <c r="G14" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H14" t="n">
-        <v>42.61745277337706</v>
+        <v>46.32331823193159</v>
       </c>
       <c r="I14" t="n">
-        <v>92.65353218210362</v>
+        <v>98.32940868655153</v>
       </c>
       <c r="J14" t="n">
-        <v>85.84038113168201</v>
+        <v>91.09888980289571</v>
       </c>
     </row>
     <row r="15">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9643643110004666</v>
+        <v>0.906829168797132</v>
       </c>
       <c r="G15" t="n">
         <v>96</v>
@@ -883,10 +883,10 @@
         <v>96.00960096009601</v>
       </c>
       <c r="I15" t="n">
-        <v>92.5789738560448</v>
+        <v>87.05560020452468</v>
       </c>
       <c r="J15" t="n">
-        <v>92.58823267931272</v>
+        <v>87.06430663518819</v>
       </c>
     </row>
     <row r="16">
@@ -899,16 +899,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6590446721266681</v>
+        <v>0.647639142172751</v>
       </c>
       <c r="G16" t="n">
         <v>122</v>
@@ -917,10 +917,10 @@
         <v>126.813853893809</v>
       </c>
       <c r="I16" t="n">
-        <v>80.4034499994535</v>
+        <v>79.01197534507563</v>
       </c>
       <c r="J16" t="n">
-        <v>83.57599476056454</v>
+        <v>82.12961555140704</v>
       </c>
     </row>
     <row r="17">
@@ -936,25 +936,25 @@
         <v>223</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="F17" t="n">
-        <v>1.328811524609844</v>
+        <v>1.161464585834334</v>
       </c>
       <c r="G17" t="n">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="H17" t="n">
-        <v>137.8112333526346</v>
+        <v>127.3885350318471</v>
       </c>
       <c r="I17" t="n">
-        <v>158.1285714285714</v>
+        <v>127.7611044417767</v>
       </c>
       <c r="J17" t="n">
-        <v>183.1251550996774</v>
+        <v>147.9572720808068</v>
       </c>
     </row>
     <row r="18">
@@ -970,25 +970,25 @@
         <v>95</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0.8461538461538461</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6524671407024348</v>
+        <v>0.6414781297134239</v>
       </c>
       <c r="G18" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H18" t="n">
-        <v>61.59823734274681</v>
+        <v>56.85991139330475</v>
       </c>
       <c r="I18" t="n">
-        <v>33.92829131652661</v>
+        <v>30.79095022624435</v>
       </c>
       <c r="J18" t="n">
-        <v>40.19082579133195</v>
+        <v>36.47438961624813</v>
       </c>
     </row>
     <row r="19">
@@ -1001,28 +1001,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>2.375</v>
+        <v>1.7</v>
       </c>
       <c r="F19" t="n">
-        <v>1.258166833166833</v>
+        <v>1.329595404595404</v>
       </c>
       <c r="G19" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H19" t="n">
-        <v>68.98684492233032</v>
+        <v>73.74455836524966</v>
       </c>
       <c r="I19" t="n">
-        <v>72.97367632367632</v>
+        <v>82.43491508491508</v>
       </c>
       <c r="J19" t="n">
-        <v>86.79696020609975</v>
+        <v>98.05042591635353</v>
       </c>
     </row>
     <row r="20">
@@ -1035,28 +1035,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="F20" t="n">
-        <v>1.467218297575441</v>
+        <v>1.383318070818071</v>
       </c>
       <c r="G20" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H20" t="n">
-        <v>83.69101278081324</v>
+        <v>80.10425509020696</v>
       </c>
       <c r="I20" t="n">
-        <v>102.7052808302808</v>
+        <v>92.68231074481075</v>
       </c>
       <c r="J20" t="n">
-        <v>122.7929852946292</v>
+        <v>110.8096636157037</v>
       </c>
     </row>
     <row r="21">
@@ -1069,28 +1069,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="D21" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>1.105263157894737</v>
       </c>
       <c r="F21" t="n">
-        <v>1.551972829589712</v>
+        <v>1.138438995003246</v>
       </c>
       <c r="G21" t="n">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H21" t="n">
-        <v>231.9516537526016</v>
+        <v>228.1902755836405</v>
       </c>
       <c r="I21" t="n">
-        <v>287.1149734740968</v>
+        <v>207.1958970905908</v>
       </c>
       <c r="J21" t="n">
-        <v>359.9826644024383</v>
+        <v>259.7807080049535</v>
       </c>
     </row>
     <row r="22">
@@ -1103,28 +1103,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E22" t="n">
-        <v>1.591836734693878</v>
+        <v>1.513513513513514</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9816344045667117</v>
+        <v>0.9905677076176619</v>
       </c>
       <c r="G22" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H22" t="n">
-        <v>393.6758893280632</v>
+        <v>388.9328063241107</v>
       </c>
       <c r="I22" t="n">
-        <v>244.4269667371112</v>
+        <v>243.6796560739448</v>
       </c>
       <c r="J22" t="n">
-        <v>386.445797212824</v>
+        <v>385.2642783777784</v>
       </c>
     </row>
   </sheetData>
